--- a/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/IUSN_sum_stat.xlsx
+++ b/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/IUSN_sum_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,262 +482,291 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001371888969145635</v>
+        <v>0.0004708292193535428</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001333403797717292</v>
+        <v>7.754423140460265e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01161492796863643</v>
+        <v>0.01159054856635039</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001349065517166127</v>
+        <v>0.000134340816068927</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03119803776906738</v>
+        <v>-0.03377645833718668</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.006338412513967689</v>
+        <v>-0.007559661695725778</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001333403797717292</v>
+        <v>7.754423140460265e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.008833703376687319</v>
+        <v>0.008819214186470192</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0374041700733676</v>
+        <v>0.03955405904768328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000244925010368282</v>
+        <v>0.001371888969145635</v>
       </c>
       <c r="B3" t="n">
-        <v>5.366642672766098e-05</v>
+        <v>0.001333403797717292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01164183855896103</v>
+        <v>0.01161492796863643</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001355324050329119</v>
+        <v>0.0001349065517166127</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04153607892131039</v>
+        <v>-0.03119803776906738</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.007793175039812889</v>
+        <v>-0.006338412513967689</v>
       </c>
       <c r="G3" t="n">
-        <v>5.366642672766098e-05</v>
+        <v>0.001333403797717292</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007066482785185069</v>
+        <v>0.008833703376687319</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04030106064423533</v>
+        <v>0.0374041700733676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0005459401550662664</v>
+        <v>-0.000244925010368282</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.038447570448023e-05</v>
+        <v>5.366642672766098e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0121917266418533</v>
+        <v>0.01164183855896103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001486381985096756</v>
+        <v>0.0001355324050329119</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03622047009032103</v>
+        <v>-0.04153607892131039</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.008018832536722448</v>
+        <v>-0.007793175039812889</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.038447570448023e-05</v>
+        <v>5.366642672766098e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008630473620669099</v>
+        <v>0.007066482785185069</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0417580017288024</v>
+        <v>0.04030106064423533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0001887231812731358</v>
+        <v>0.0005459401550662664</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0001875855275459415</v>
+        <v>-4.038447570448023e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01176943971007302</v>
+        <v>0.0121917266418533</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001385197110890436</v>
+        <v>0.0001486381985096756</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03529680272289093</v>
+        <v>-0.03622047009032103</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.008625448806497016</v>
+        <v>-0.008018832536722448</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001875855275459415</v>
+        <v>-4.038447570448023e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007896635165790922</v>
+        <v>0.008630473620669099</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03980572608484856</v>
+        <v>0.0417580017288024</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.00103895153469505</v>
+        <v>-0.0001887231812731358</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0007247385113503535</v>
+        <v>0.0001875855275459415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01178141938172779</v>
+        <v>0.01176943971007302</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001388018426481513</v>
+        <v>0.0001385197110890436</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03580363163313216</v>
+        <v>-0.03529680272289093</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.006570901579749461</v>
+        <v>-0.008625448806497016</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0007247385113503535</v>
+        <v>0.0001875855275459415</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00907094778458406</v>
+        <v>0.007896635165790922</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04099408569684515</v>
+        <v>0.03980572608484856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.000316368910751632</v>
+        <v>0.00103895153469505</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.333527072043376e-05</v>
+        <v>0.0007247385113503535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01190085771292253</v>
+        <v>0.01178141938172779</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001416304143032277</v>
+        <v>0.0001388018426481513</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03534322145521163</v>
+        <v>-0.03580363163313216</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.007963224762235488</v>
+        <v>-0.006570901579749461</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.333527072043376e-05</v>
+        <v>0.0007247385113503535</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007662777676245736</v>
+        <v>0.00907094778458406</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04019560462371508</v>
+        <v>0.04099408569684515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.688715828457262e-05</v>
+        <v>-0.000316368910751632</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0002664895361340069</v>
+        <v>-5.333527072043376e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01152131445717053</v>
+        <v>0.01190085771292253</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001327406868210067</v>
+        <v>0.0001416304143032277</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03142952804749966</v>
+        <v>-0.03534322145521163</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.007681501817059955</v>
+        <v>-0.007963224762235488</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0002664895361340069</v>
+        <v>-5.333527072043376e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007834276020930286</v>
+        <v>0.007662777676245736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03969055631555607</v>
+        <v>0.04019560462371508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.090467892006894e-05</v>
+        <v>3.688715828457262e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0004620258693317503</v>
+        <v>-0.0002664895361340069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01174281771962169</v>
+        <v>0.01152131445717053</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001378937679962611</v>
+        <v>0.0001327406868210067</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.03661100388791461</v>
+        <v>-0.03142952804749966</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008338255926404775</v>
+        <v>-0.007681501817059955</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004620258693317503</v>
+        <v>-0.0002664895361340069</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008350005327504462</v>
+        <v>0.007834276020930286</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0333370116715519</v>
+        <v>0.03969055631555607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>2.090467892006894e-05</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0004620258693317503</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01174281771962169</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0001378937679962611</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.03661100388791461</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.008338255926404775</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0004620258693317503</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.008350005327504462</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0333370116715519</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0.0001540443528473511</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>-0.0003780124780969341</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>0.01189429016128885</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>0.0001414741384409328</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>-0.03433568535137543</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.008019736588225412</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>-0.0003780124780969341</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.008600148960993537</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.03533560555532356</v>
       </c>
     </row>
